--- a/DOM_Banner/output/dept_banner/Akshay Amaraneni_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Akshay Amaraneni_2022.xlsx
@@ -693,7 +693,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4386318046", "https://openalex.org/W4226465080", "https://openalex.org/W246639498", "https://openalex.org/W265885100", "https://openalex.org/W4311167496", "https://openalex.org/W2059438963", "https://openalex.org/W2468025277", "https://openalex.org/W1535355188", "https://openalex.org/W2969631706", "https://openalex.org/W3113283867")</t>
+          <t>c("https://openalex.org/W4386318046", "https://openalex.org/W4226465080", "https://openalex.org/W2969631706", "https://openalex.org/W2468025277", "https://openalex.org/W2059438963", "https://openalex.org/W1535355188", "https://openalex.org/W3113283867", "https://openalex.org/W246639498", "https://openalex.org/W265885100", "https://openalex.org/W4311167496")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Akshay Amaraneni_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Akshay Amaraneni_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,707 +360,328 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Ritika Halder, Akshay Amaraneni, Rachna T. Shroff</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3159292136</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Cholangiocarcinoma: a review of the literature and future directions in therapy</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5016030202", "https://openalex.org/A5072834309", "https://openalex.org/A5012936802"), au_display_name = c("Ritika Halder", "Akshay Amaraneni", "Rachna T. Shroff"), au_orcid = c("https://orcid.org/0000-0002-4417-9618", "https://orcid.org/0000-0002-3231-6056", "https://orcid.org/0000-0003-0066-2672"), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Department of Medicine, The University of Arizona School of Medicine, Tucson, AZ, USA", "The Oncology Institute of Hope and Innovation, Tucson, AZ, USA", 
-"Department of Medicine, The University of Arizona School of Medicine, Tucson, AZ, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210128239", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Oncology Institute of Hope and Innovation", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/0346nyf55", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US"), institution_type = c("education", 
-"healthcare", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210128239", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cholangiocarcinomas (CCA) are a group of rare cancers with an incidence of about 1.26 per 100,000 people. The disease reflects one of three different subtypes: intrahepatic, perihilar or hilar and distal cholangiocarcinoma. The preferred modality of definitive therapy is surgical resection with or without adjuvant therapy, however the majority of patients with this disease do not present at an early stage. Some efforts to improve survival rates have come in the form of offering neoadjuvant therapy prior to surgical resection or liver transplantation. Some new protocols are in the process of development for neoadjuvant therapy. Despite advancements in locally advanced or borderline resectable lesions, most patient present at an advanced stage. The mainstay of treatment for advanced stage disease is chemotherapy regardless of location. The mainstay of treatment in fit patients is the combination of gemcitabine and cisplatin. The addition of nab-paclitaxel to this backbone is currently being evaluated in phase III trial. In addition, the role of targeted therapy is currently being studied extensively through multiple different mutational pathways including isocitrate dehydrogenase-1 (IDH1), fibroblast growth factor receptor (FGFR), epidermal growth factor receptor (EGFR) and ERBB2 (HER2/neu). CCA remains a significant challenge in medicine, however recent studies have shown that there is significant interest in advancing therapy in the form of neoadjuvant, adjuvant and palliative intent treatment.</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>Hepatobiliary surgery and nutrition</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hepatobiliary surgery and nutrition</t>
+          <t>AME Publishing Company</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2764661443</t>
+          <t>https://doi.org/10.21037/hbsn-20-396</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AME Publishing Company</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2304-3881</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36016753</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.21037/hbsn-20-396</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://hbsn.amegroups.com/article/viewFile/68535/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>566</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://hbsn.amegroups.com/article/viewFile/68535/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W3159292136</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W3159292136", doi = "https://doi.org/10.21037/hbsn-20-396", mag = "3159292136", pmid = "https://pubmed.ncbi.nlm.nih.gov/36016753")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21037/hbsn-20-396</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1486884945", "https://openalex.org/W1488612779", "https://openalex.org/W1891651361", "https://openalex.org/W1913865396", "https://openalex.org/W1938837918", "https://openalex.org/W1940241680", "https://openalex.org/W1969794579", "https://openalex.org/W1985334064", "https://openalex.org/W1985506358", "https://openalex.org/W1991701933", "https://openalex.org/W1997745244", "https://openalex.org/W1997838076", "https://openalex.org/W2011387799", "https://openalex.org/W2016764366", 
-"https://openalex.org/W2035515971", "https://openalex.org/W2048770368", "https://openalex.org/W2052203960", "https://openalex.org/W2052205828", "https://openalex.org/W2052597138", "https://openalex.org/W2058269557", "https://openalex.org/W2067575315", "https://openalex.org/W2087336559", "https://openalex.org/W2089067439", "https://openalex.org/W2090357861", "https://openalex.org/W2097924418", "https://openalex.org/W2103257412", "https://openalex.org/W2115261608", "https://openalex.org/W2115288936", 
-"https://openalex.org/W2116538964", "https://openalex.org/W2117834374", "https://openalex.org/W2118520585", "https://openalex.org/W2130504424", "https://openalex.org/W2135849593", "https://openalex.org/W2137060844", "https://openalex.org/W2144292477", "https://openalex.org/W2145572075", "https://openalex.org/W2170729751", "https://openalex.org/W2309818502", "https://openalex.org/W2316137383", "https://openalex.org/W2554089088", "https://openalex.org/W2566110564", "https://openalex.org/W2589049990", 
-"https://openalex.org/W2752583521", "https://openalex.org/W2763492611", "https://openalex.org/W2790277876", "https://openalex.org/W2810896515", "https://openalex.org/W2914858130", "https://openalex.org/W2922428045", "https://openalex.org/W2923282967", "https://openalex.org/W2937317161", "https://openalex.org/W2946205963", "https://openalex.org/W2959525851", "https://openalex.org/W2971810940", "https://openalex.org/W2976652075", "https://openalex.org/W2999320953", "https://openalex.org/W4239174155", 
-"https://openalex.org/W4239636442", "https://openalex.org/W4246018467")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4386318046", "https://openalex.org/W4226465080", "https://openalex.org/W2969631706", "https://openalex.org/W2468025277", "https://openalex.org/W2059438963", "https://openalex.org/W1535355188", "https://openalex.org/W3113283867", "https://openalex.org/W246639498", "https://openalex.org/W265885100", "https://openalex.org/W4311167496")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Vikram Sumbly, Ian Landry, Christina Sneed, Qamar Iqbal, Anu Verma, Tenzin Dhokhar, Adeel Masood, Akshay Amaraneni</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311522577</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Leukemic stem cells and advances in hematopoietic stem cell transplantation for acute myeloid leukemia: a narrative review of clinical trials</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5012715086", "https://openalex.org/A5058580667", "https://openalex.org/A5008164368", "https://openalex.org/A5070848310", "https://openalex.org/A5004702948", "https://openalex.org/A5077483730", "https://openalex.org/A5038186608", "https://openalex.org/A5072834309"), au_display_name = c("Vikram Sumbly", "Ian Landry", "Christina Sneed", "Qamar Iqbal", "Anu Verma", "Tenzin Dhokhar", "Adeel Masood", "Akshay Amaraneni"), au_orcid = c(NA, "https://orcid.org/0000-0002-9757-4064", 
-NA, NA, "https://orcid.org/0000-0003-3993-4209", NA, "https://orcid.org/0000-0001-7085-777X", "https://orcid.org/0000-0002-3231-6056"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, 
-NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Objective: The purpose of this literature review is to summarize and provide a brief overview of our current understanding of acute myeloid leukemia (AML) and the role of stem cell transplantation (SCT) in its management.</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>Stem cell investigation</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stem cell investigation</t>
+          <t>AME Publishing Company</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2764838199</t>
+          <t>https://doi.org/10.21037/sci-2022-044</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AME Publishing Company</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2306-9759</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36540355</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.21037/sci-2022-044</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://sci.amegroups.com/article/viewFile/105938/pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://sci.amegroups.com/article/viewFile/105938/pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4311522577</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4311522577", doi = "https://doi.org/10.21037/sci-2022-044", pmid = "https://pubmed.ncbi.nlm.nih.gov/36540355")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21037/sci-2022-044</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W187238933", "https://openalex.org/W1511201911", "https://openalex.org/W1600365609", "https://openalex.org/W1704551630", "https://openalex.org/W1867181351", "https://openalex.org/W1964270831", "https://openalex.org/W1967127679", "https://openalex.org/W1971280577", "https://openalex.org/W1971455987", "https://openalex.org/W1972465541", "https://openalex.org/W1972694890", "https://openalex.org/W1978145676", "https://openalex.org/W1980969183", "https://openalex.org/W1984882433", 
-"https://openalex.org/W1994915831", "https://openalex.org/W1996383959", "https://openalex.org/W1998973639", "https://openalex.org/W1999244706", "https://openalex.org/W2016367481", "https://openalex.org/W2017196865", "https://openalex.org/W2020347902", "https://openalex.org/W2051971280", "https://openalex.org/W2055153838", "https://openalex.org/W2069131424", "https://openalex.org/W2073845277", "https://openalex.org/W2074425311", "https://openalex.org/W2087950157", "https://openalex.org/W2097540657", 
-"https://openalex.org/W2101763942", "https://openalex.org/W2112867689", "https://openalex.org/W2113248848", "https://openalex.org/W2115852541", "https://openalex.org/W2116858301", "https://openalex.org/W2118693086", "https://openalex.org/W2128812336", "https://openalex.org/W2136088321", "https://openalex.org/W2138324480", "https://openalex.org/W2139097852", "https://openalex.org/W2146245932", "https://openalex.org/W2149053153", "https://openalex.org/W2161879531", "https://openalex.org/W2162309072", 
-"https://openalex.org/W2162523466", "https://openalex.org/W2211009138", "https://openalex.org/W2214515641", "https://openalex.org/W2266089606", "https://openalex.org/W2339658711", "https://openalex.org/W2343291871", "https://openalex.org/W2407607550", "https://openalex.org/W2419140434", "https://openalex.org/W2523562238", "https://openalex.org/W2559537906", "https://openalex.org/W2561450137", "https://openalex.org/W2572765151", "https://openalex.org/W2585095864", "https://openalex.org/W2765847374", 
-"https://openalex.org/W2767764959", "https://openalex.org/W2792481575", "https://openalex.org/W2808087423", "https://openalex.org/W2811405063", "https://openalex.org/W2811438356", "https://openalex.org/W2883443104", "https://openalex.org/W2889470010", "https://openalex.org/W2942855506", "https://openalex.org/W2975236857", "https://openalex.org/W3014642785", "https://openalex.org/W3044411592", "https://openalex.org/W3045877021", "https://openalex.org/W3048827006", "https://openalex.org/W3080879632", 
-"https://openalex.org/W3104531501", "https://openalex.org/W3133716805", "https://openalex.org/W3135963994", "https://openalex.org/W3158896377", "https://openalex.org/W3204559137", "https://openalex.org/W3206915573", "https://openalex.org/W4206779370", "https://openalex.org/W4210498014", "https://openalex.org/W4211064448", "https://openalex.org/W4284884567")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3039046190", "https://openalex.org/W3207807551", "https://openalex.org/W2909695583", "https://openalex.org/W2791968852", "https://openalex.org/W2419389668", "https://openalex.org/W1493011226", "https://openalex.org/W2560841524", "https://openalex.org/W2414586291", "https://openalex.org/W2102605856", "https://openalex.org/W1974032072")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Ulyana Dashkevych, Nishant Munugala, Sharad Khurana, Abhijeet Kumar, Krisstina Gowin, Akshay Amaraneni, Ravi Krishnadasan, Jeffrey J. Pu, Emmanuel Katsanis, Muhammad Husnain</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310108057</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome (ICANS) after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5042192046", "https://openalex.org/A5035023513", "https://openalex.org/A5000881706", "https://openalex.org/A5006869077", "https://openalex.org/A5050797998", "https://openalex.org/A5072834309", "https://openalex.org/A5038489898", "https://openalex.org/A5028299420", "https://openalex.org/A5036696622", "https://openalex.org/A5001408270"), au_display_name = c("Ulyana Dashkevych", "Nishant Munugala", "Sharad Khurana", "Abhijeet Kumar", "Krisstina Gowin", "Akshay Amaraneni", 
-"Ravi Krishnadasan", "Jeffrey J. Pu", "Emmanuel Katsanis", "Muhammad Husnain"), au_orcid = c(NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-3231-6056", NA, "https://orcid.org/0000-0001-7498-3159", "https://orcid.org/0000-0003-1466-6965", "https://orcid.org/0000-0001-7248-9835"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("1University of Arizona Department of Medicine, Tucson,", "2University of Arizona Cancer Center, Tucson, AZ", 
-"2University of Arizona Cancer Center, Tucson, AZ", "3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ", "4Department of Hematology, University of Arizona, Tucson, AZ", "5Arizona Cancer Center, Tucson, AZ", "2University of Arizona Cancer Center, Tucson, AZ", "6University of Arizona Cancer Center, University of Arizona College of Medicine, Tucson, AZ", "7Departments of Pediatrics, University of Arizona, Tucson, AZ", "8University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ"
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210162453", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", 
-"University of Arizona", "Arizona Oncology", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/05c1xy536", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", 
-"US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "healthcare", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I4210162453", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Background: Chimeric antigen receptor (CAR) T-cell immunotherapy is a paradigm shifting treatment option for multiple refractory hematologic malignancies. Immune effector cell-associated neurotoxicity syndrome (ICANS) is a serious adverse effect (AE) associated with CAR T-cell therapy. To date, corticosteroids remain the cornerstone treatment of ICANS. Recently, limited clinical data have suggested that the addition of anakinra may be beneficial in the treatment of corticosteroid refractory severe ICANS. Methods: We performed a retrospective chart review of patients with a diagnosis of refractory B cell lymphoma treated with CART-cell therapy at the University of Arizona Cancer Center (UACC), who subsequently developed severe ICANS (grade 3-4). We report five cases in which anakinra (at the dose of 100 mg daily) was used as an adjunct therapy to high dose steroid treatment in managing severe ICANS. Results: A total of 33 patients received CART-cell therapy at UACC from 01/2019-07/2022. The incidence of severe ICANS was 21% (7/33). Baseline characteristics of 7 patients who developed high grade ICANS are summarized in Table 1. The median age was 65 (range 51-70). 5 patients were treated with Tisagenlecleucel, 1 with Axicabtagene ciloleucel and 1 with Brexucabtagene autoleucel CAR-T cell therapy. The median time to onset of severe ICANS was 6 days (range 1-13 days). Two out of seven patients (29%) developed grade 3 ICANS which resolved quickly with corticosteroids in 1-3 days. Five out of seven patients (71%) developed grade 4 ICANS, requiring ICU admission and high dose corticosteroids. Patients received at least 3 days of high dose corticosteroids with methylprednisolone 500 mg IV twice a day before anakinra was added for steroid refractory ICANS. On average, patients received ~ 9 doses of corticosteroids prior to anakinra administration. After addition of anakinra, three patients had a complete resolution of ICANS, two patients had partial improvement in their ICANS (grade 1-2). For the three patients with complete resolution of ICANS, the median number of anakinra doses were 4, median duration of severe ICANS (post-anakinra) was 3 days and the median time in ICU was 3 days. Clinical course was complicated for the other two patients with acute hypoxic respiratory failure in one patient and E. coli bacteremia, fulminant pseudomembranous colitis s/p colectomy, and septic shock in the second patient leading to death on days +23 and +40 respectively. Conclusion: Although limited in number, our analysis suggests anakinra may be effective and safe in steroid refractory ICANS. ICANS resolved completely in three out of five patients following administration of anakinra who were refractory to high dose corticosteroids, and partially improved to grade 1-2 in two patients. No significant side effects attributed to anakinra were observed. Future randomized controlled studies are needed to better understand the overall efficacy and the ideal timeline for administration. Figure 1View largeDownload PPTFigure 1View largeDownload PPT Close modal</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S200071133</t>
+          <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0006-4971</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>12753</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>12754</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Supplement 1</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2022-168240</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4310108057</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4310108057", doi = "https://doi.org/10.1182/blood-2022-168240")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2022-168240</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W4221108701", "https://openalex.org/W2103581795", "https://openalex.org/W4283828595", "https://openalex.org/W4210494391", "https://openalex.org/W2804159084", "https://openalex.org/W4231375755", "https://openalex.org/W2225832060", "https://openalex.org/W3031052312")</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Akshay Amaraneni_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Akshay Amaraneni_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medicine, The University of Arizona School of Medicine, Tucson, AZ, USA; The Oncology Institute of Hope and Innovation, Tucson, AZ, USA; Department of Medicine, The University of Arizona School of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3159292136</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Cholangiocarcinoma: a review of the literature and future directions in therapy</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Hepatobiliary surgery and nutrition</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>AME Publishing Company</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/hbsn-20-396</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36016753</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/hbsn-20-396</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311522577</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Leukemic stem cells and advances in hematopoietic stem cell transplantation for acute myeloid leukemia: a narrative review of clinical trials</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Stem cell investigation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>AME Publishing Company</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/sci-2022-044</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36540355</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/sci-2022-044</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1University of Arizona Department of Medicine, Tucson,; 2University of Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 3Department of Internal Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; 4Department of Hematology, University of Arizona, Tucson, AZ; 5Arizona Cancer Center, Tucson, AZ; 2University of Arizona Cancer Center, Tucson, AZ; 6University of Arizona Cancer Center, University of Arizona College of Medicine, Tucson, AZ; 7Departments of Pediatrics, University of Arizona, Tucson, AZ; 8University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310108057</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome (ICANS) after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168240</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
